--- a/raw_data/2011.xlsx
+++ b/raw_data/2011.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyjiang/Desktop/jenny-jiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyjiang/Desktop/jenny-jiang/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="3540" windowWidth="28800" windowHeight="16160"/>
+    <workbookView xWindow="14320" yWindow="4420" windowWidth="28800" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="11b" sheetId="1" r:id="rId1"/>
@@ -2127,7 +2127,7 @@
   <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
